--- a/Alcohol_detector_bill_of_materials.xlsx
+++ b/Alcohol_detector_bill_of_materials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Documents\2EAIA_2021-2022\Elektronische_Systemen_2\Elektronische_systemen_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1074A9-7BDF-4BA4-81C3-F4CB35B6B305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD54FFE-9944-4523-80EA-2731F158B4CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{D9BF0B0C-6299-450B-AB13-B73564D635F9}"/>
+    <workbookView xWindow="-28920" yWindow="-4800" windowWidth="29040" windowHeight="15720" xr2:uid="{D9BF0B0C-6299-450B-AB13-B73564D635F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
   <si>
     <t>Conrad</t>
   </si>
@@ -94,24 +94,9 @@
     <t>https://www.mouser.be/ProductDetail/Texas-Instruments/LM7171AIMX-NOPB?qs=QbsRYf82W3EidM3k7G2htQ%3D%3D&amp;gclid=Cj0KCQjwuMuRBhCJARIsAHXdnqOv6SIOLKqRmXq336u8LvTuvWKBQiuF1k_Bd69q3yKJo9yMg96i-7AaApXiEALw_wcB</t>
   </si>
   <si>
-    <t>https://www.mouser.be/ProductDetail/YAGEO/MFR-25FBF52-1K?qs=sGAEpiMZZMt1iCLsaqcCFhQHCoujQSoxPniM18VUzXk%3D</t>
-  </si>
-  <si>
-    <t>https://www.mouser.be/ProductDetail/Vishay-Dale/CMF6080R000BHEB?qs=sGAEpiMZZMua3V2yDfsb6Uc4wpt3NsMV</t>
-  </si>
-  <si>
-    <t>https://www.mouser.be/ProductDetail/Vishay-Dale/CMF55300R00FKEB?qs=sGAEpiMZZMsWXMzpKpZSZQst9AAii%252BxXFIEE5ZiaeXo%3D</t>
-  </si>
-  <si>
-    <t>https://www.mouser.be/ProductDetail/Vishay-Dale/CPF1200R00FKE14?qs=sGAEpiMZZMsKEdP9slC0YRaVZZn0QskH</t>
-  </si>
-  <si>
     <t>Weerstand [100 ohm]</t>
   </si>
   <si>
-    <t>https://www.mouser.be/ProductDetail/Vishay-Dale/HML01100RFKE05?qs=sGAEpiMZZMukxKgYRb08uNU62aabCMvs27GZt8Tapho%3D</t>
-  </si>
-  <si>
     <t>Led groen</t>
   </si>
   <si>
@@ -124,22 +109,49 @@
     <t>Arduino nano</t>
   </si>
   <si>
-    <t>Weerstand [5.1]</t>
-  </si>
-  <si>
     <t>https://www.conrad.be/nl/p/lumberg-161321-laagspannings-connector-bus-inbouw-horizontaal-6-mm-2-35-mm-1-stuk-s-733247.html</t>
   </si>
   <si>
     <t>Laagspannings-connector</t>
   </si>
   <si>
-    <t>https://www.mouser.be/ProductDetail/Vishay-Dale/CCF07820RGKE36?qs=sGAEpiMZZMug%252BNZZT2EIM7XntSfBXpqG</t>
-  </si>
-  <si>
     <t>Weerstand [820 ohm]</t>
   </si>
   <si>
-    <t>https://www.mouser.be/ProductDetail/Vishay-Dale/CMF555R1000FKBF?qs=sGAEpiMZZMtlubZbdhIBIChJYLgpoBpHnRdx97%252BkcOA%3D</t>
+    <t>https://www.mouser.be/ProductDetail/Bourns/CMP0805-FX-3300ELF?qs=sGAEpiMZZMv0NwlthflBi36ii%2F38edAl1uqKCPT7xFY%3D</t>
+  </si>
+  <si>
+    <t>Weerstand [330 ohm]</t>
+  </si>
+  <si>
+    <t>Weerstand [5.1 ohm]</t>
+  </si>
+  <si>
+    <t>https://www.mouser.be/ProductDetail/Kingbright/CC56-12SRWA?qs=2JU0tDl2GZ2fpUHyzDiccw%3D%3D</t>
+  </si>
+  <si>
+    <t>4x7 segment display</t>
+  </si>
+  <si>
+    <t>https://www.mouser.be/ProductDetail/Bourns/CR0805-FX-1001ELF?qs=sGAEpiMZZMtJuH53xR2FXG9mtPXyg8UU</t>
+  </si>
+  <si>
+    <t>https://www.mouser.be/ProductDetail/Vishay-Sfernice/P0805E80R0BBT?qs=sGAEpiMZZMtJuH53xR2FXAxZf6untGt4</t>
+  </si>
+  <si>
+    <t>https://www.mouser.be/ProductDetail/Vishay-Dale/RCS0805300RJNEA?qs=sGAEpiMZZMtlubZbdhIBILAdz%2F2y2rDsBziNwS3aryA%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.be/ProductDetail/Bourns/CR0805-JW-201ELF?qs=sGAEpiMZZMtlubZbdhIBIPJRFm2x4gVbllYw17jCaBI%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.be/ProductDetail/Bourns/CMP0805AFX-1000ELF?qs=sGAEpiMZZMv0NwlthflBiylpHAp92cFjBTAAzu8gl1A%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.be/ProductDetail/Bourns/CR0805-FX-8200ELF?qs=sGAEpiMZZMtJuH53xR2FXL7nOq%2Fx3fN1</t>
+  </si>
+  <si>
+    <t>https://www.mouser.be/ProductDetail/Bourns/CR0805-J-5R1ELF?qs=sGAEpiMZZMtlubZbdhIBIPJRFm2x4gVbh7B4%2FCTZAHo%3D</t>
   </si>
 </sst>
 </file>
@@ -582,7 +594,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,7 +633,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
@@ -644,7 +656,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>0</v>
@@ -666,7 +678,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>3</v>
@@ -689,7 +701,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>0</v>
@@ -712,13 +724,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -769,7 +781,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -783,7 +795,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -797,7 +809,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -811,7 +823,7 @@
         <v>6</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -819,13 +831,13 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -833,13 +845,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -853,10 +865,38 @@
         <v>6</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>4</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D1:J1"/>
@@ -873,6 +913,11 @@
     <hyperlink ref="D6" r:id="rId9" xr:uid="{67B8D2B5-20D3-4756-A34F-85180A0EA37F}"/>
     <hyperlink ref="D8" r:id="rId10" xr:uid="{EDA28E2B-AC67-4282-9F5F-0D7E7D30F98E}"/>
     <hyperlink ref="D14" r:id="rId11" xr:uid="{EEE710DA-BF8E-4FF6-ACD3-556F93A36C00}"/>
+    <hyperlink ref="D16" r:id="rId12" xr:uid="{C8F4C0C6-CA40-4B69-B370-8CCCD17A3C43}"/>
+    <hyperlink ref="D11" r:id="rId13" xr:uid="{41FA7796-3FED-42E1-B73E-865C40DBF573}"/>
+    <hyperlink ref="D12" r:id="rId14" xr:uid="{23AB77B6-ACAD-4DBE-A93A-F45199AA453B}"/>
+    <hyperlink ref="D13" r:id="rId15" xr:uid="{1181400C-8529-4722-BE4A-BB75F16BB47F}"/>
+    <hyperlink ref="D17" r:id="rId16" xr:uid="{F8F1D32B-6F0D-4B4D-8427-EF45A72BED84}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
